--- a/projeto/questions.xlsx
+++ b/projeto/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,87 +468,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Qual é a capital da França?</t>
+          <t>Qual é o comando para exibir algo no console em Python?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>console.log()</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Londres</t>
+          <t>echo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Berlim</t>
+          <t>print()</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>System.out.println()</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Qual é o resultado de 8 + 5?</t>
+          <t>Como você cria uma lista em Python?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>list = ()</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>list = {}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>list = ||</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>list = []</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quem pintou a Mona Lisa?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Picasso</t>
-        </is>
+          <t>Qual é o operador de atribuição em Python?</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>=</f>
+        <v/>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Da Vinci</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Van Gogh</t>
-        </is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="D4">
+        <f>==</f>
+        <v/>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Warhol</t>
+          <t>:=</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -558,57 +556,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Quanto é 6 multiplicado por 7?</t>
+          <t>Como você declara uma função em Python?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>func myFunc():</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>function myFunc():</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>def myFunc():</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>fn myFunc():</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Qual é o maior planeta do sistema solar?</t>
+          <t>Como você inicia um loop `for` em Python?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marte</t>
+          <t>for i to n:</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Saturno</t>
+          <t>foreach i in range():</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Júpiter</t>
+          <t>for i in range():</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vênus</t>
+          <t>for (i=0; i&lt;n; i++):</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -618,57 +616,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Quem escreveu a obra 'Dom Quixote'?</t>
+          <t>Qual é a função usada para obter o comprimento de uma lista?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machado de Assis</t>
+          <t>count()</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Miguel de Cervantes</t>
+          <t>size()</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jorge Luis Borges</t>
+          <t>length()</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gabriel García Márquez</t>
+          <t>len()</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Qual é a fórmula química da água?</t>
+          <t>Qual é o tipo de dado para números decimais em Python?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H2O</t>
+          <t>float</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CO2</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NaCl</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CH4</t>
+          <t>double</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -678,87 +676,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Quem foi o primeiro presidente dos Estados Unidos?</t>
+          <t>Como você cria uma string em Python?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>George Washington</t>
+          <t>string(texto)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Abraham Lincoln</t>
+          <t>{texto}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thomas Jefferson</t>
+          <t>'texto'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>John F. Kennedy</t>
+          <t>[texto]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Qual é o resultado de 4 ao cubo?</t>
+          <t>Qual é a palavra-chave para criar uma classe em Python?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>Class</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>object</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>define</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>class</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Qual é a capital da Rússia?</t>
+          <t>Como você importa um módulo em Python?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Moscou</t>
+          <t>import module</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>São Petersburgo</t>
+          <t>use module</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kiev</t>
+          <t>require module</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Varsóvia</t>
+          <t>include module</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -768,177 +766,177 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Quem descobriu a teoria da relatividade?</t>
+          <t>Qual função é usada para ler a entrada do usuário no console?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Isaac Newton</t>
+          <t>read()</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Galileu Galilei</t>
+          <t>input()</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Albert Einstein</t>
+          <t>get()</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nikola Tesla</t>
+          <t>scanf()</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Qual é o símbolo químico do ouro?</t>
+          <t>Qual é o valor de `5 // 2` em Python?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Au</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ag</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Quem foi o autor da obra 'Romeu e Julieta'?</t>
+          <t>Como você define uma variável global dentro de uma função?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>William Shakespeare</t>
+          <t>let var</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Charles Dickens</t>
+          <t>var global</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mark Twain</t>
+          <t>global var</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jane Austen</t>
+          <t>global: var</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Qual é a capital do Brasil?</t>
+          <t>Qual é a estrutura correta para um bloco `try` em Python?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>try: except:</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brasília</t>
+          <t>try {} catch {}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>try {} except {}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>try: catch:</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Qual é o resultado de 9 dividido por 3?</t>
+          <t>Qual é o método usado para adicionar um elemento em uma lista?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>append()</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>insert()</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>add()</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>push()</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Quem pintou a obra 'A Noite Estrelada'?</t>
+          <t>Qual biblioteca padrão é usada para trabalhar com datas em Python?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Leonardo da Vinci</t>
+          <t>calendar</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Michelangelo</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Salvador Dalí</t>
+          <t>time</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vincent van Gogh</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -948,150 +946,120 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Qual é o maior oceano do mundo?</t>
+          <t>Como você converte uma string para um número inteiro em Python?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Atlântico</t>
+          <t>float()</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Índico</t>
+          <t>int()</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pacífico</t>
+          <t>str()</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ártico</t>
+          <t>toInt()</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Qual é o resultado de 2 elevado a 8?</t>
+          <t>Como você remove um elemento de uma lista em Python?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>pop()</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>del</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>remove()</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>delete()</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Quem escreveu a obra '1984'?</t>
+          <t>Qual é o resultado de `2 ** 3` em Python?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aldous Huxley</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ernest Hemingway</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>F. Scott Fitzgerald</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Qual é o resultado de 15 menos 7?</t>
+          <t>Qual é a palavra-chave usada para encerrar um loop?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>end</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>break</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Quem foi o pintor do quadro 'A Última Ceia'?</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pablo Picasso</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Salvador Dalí</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Michelangelo</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Leonardo da Vinci</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
         <v>4</v>
       </c>
     </row>
